--- a/ContainerHistory_sht3.xlsx
+++ b/ContainerHistory_sht3.xlsx
@@ -1,76 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\PoolCleansingPOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47412DFB-54C5-4588-A7B9-F67511C3A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="sht1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <x:sheet name="sht1" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Container ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chassis ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activity Cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eq Status Cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activity Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Truck Cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sender Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Receiver ID</x:t>
+  </x:si>
   <x:si>
     <x:t>Apply</x:t>
   </x:si>
   <x:si>
-    <x:t>ONEU902061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLTZ454726</x:t>
+    <x:t>CICU411313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLTZ138069</x:t>
   </x:si>
   <x:si>
     <x:t>OA</x:t>
   </x:si>
   <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-Jul-2023 14:02:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USOAK - OAKLAND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RESP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRAPACI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FVLI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-Jul-2023 15:55:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2704 - Los Angeles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OAEA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3105488232</x:t>
+    <x:t>L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-Jul-2023 07:23:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762930 - SLCIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LABASIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DCLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-Jul-2023 16:09:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-Jul-2023 16:08:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-Jul-2023 04:32:00</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -86,38 +132,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -405,11 +445,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{9FAA9D3B-9653-48D9-B680-10D81A504CAE}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J4"/>
+  <x:dimension ref="A1:J11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -449,95 +508,292 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="D5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ContainerHistory_sht3.xlsx
+++ b/ContainerHistory_sht3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\PoolCleansingPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47412DFB-54C5-4588-A7B9-F67511C3A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED2C5F9-DF54-40E5-9D8A-77D7EE466F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <x:sheet name="sht1" sheetId="4" r:id="rId4"/>
+    <x:sheet name="sht1" sheetId="4" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>Action</x:t>
   </x:si>
@@ -106,6 +106,51 @@
   </x:si>
   <x:si>
     <x:t>29-Jul-2023 04:32:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-Jul-2023 11:48:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>876430 - OAKLAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FVXZ177262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-Jul-2023 03:29:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-Jul-2023 19:26:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KAML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-Jul-2023 19:17:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2811 - OAKLAND, CA USA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSOFA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FVLI</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -451,7 +496,7 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData/>
@@ -464,15 +509,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J11"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
@@ -794,6 +841,258 @@
       </x:c>
       <x:c r="J11" s="0" t="s">
         <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
